--- a/data/label_frequency_update_october2021.xlsx
+++ b/data/label_frequency_update_october2021.xlsx
@@ -35,12 +35,15 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Creatinine mg/dl</t>
+  </si>
+  <si>
+    <t>White blood cell count</t>
+  </si>
+  <si>
     <t>Death</t>
   </si>
   <si>
-    <t>White blood cell count</t>
-  </si>
-  <si>
     <t>Comorbidities</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
     <t>Hemoglobin</t>
   </si>
   <si>
-    <t>Creatinine mg/dl</t>
-  </si>
-  <si>
     <t>Platelet</t>
   </si>
   <si>
@@ -65,15 +65,15 @@
     <t>Lymphocytes</t>
   </si>
   <si>
+    <t>Fibrinogen</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
     <t>Alanine aminotransferase</t>
   </si>
   <si>
-    <t>Neutrophil</t>
-  </si>
-  <si>
-    <t>Fibrinogen</t>
-  </si>
-  <si>
     <t>Aspartate aminotransferase</t>
   </si>
   <si>
@@ -98,1345 +98,1345 @@
     <t>Oxygen saturation</t>
   </si>
   <si>
+    <t>International normalised ratio (INR)</t>
+  </si>
+  <si>
+    <t>IL-6</t>
+  </si>
+  <si>
     <t>Erythrocyte sedimentation rate (ESR)</t>
   </si>
   <si>
-    <t>IL-6</t>
-  </si>
-  <si>
-    <t>International normalised ratio (INR)</t>
+    <t>COVID-19 disease severity</t>
+  </si>
+  <si>
+    <t>Lactate</t>
+  </si>
+  <si>
+    <t>Laboratory findings</t>
+  </si>
+  <si>
+    <t>Troponin I</t>
+  </si>
+  <si>
+    <t>MRI Findings</t>
+  </si>
+  <si>
+    <t>Therapy</t>
+  </si>
+  <si>
+    <t>Age - year/ Sex</t>
+  </si>
+  <si>
+    <t>Oxygen therapy</t>
+  </si>
+  <si>
+    <t>NIHSS</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Hematocrit (%)</t>
+  </si>
+  <si>
+    <t>ICU admission</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Hospital LOS (d)</t>
+  </si>
+  <si>
+    <t>Highest temperature, °C</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>GFR (ml/min)</t>
+  </si>
+  <si>
+    <t>Duration of symptoms</t>
+  </si>
+  <si>
+    <t>Potassium (mEq/L)</t>
+  </si>
+  <si>
+    <t>Risc factors</t>
+  </si>
+  <si>
+    <t>Sodium (mEq/L)</t>
+  </si>
+  <si>
+    <t>Absolute reticulocyte count</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Leukocyte count</t>
+  </si>
+  <si>
+    <t>RBC Count</t>
+  </si>
+  <si>
+    <t>Troponin (ng/L)</t>
+  </si>
+  <si>
+    <t>COVID diagnosis</t>
+  </si>
+  <si>
+    <t>Imaging features</t>
+  </si>
+  <si>
+    <t>Urea (mmol/L)</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Blood urea nitrogen (mg/dL)</t>
+  </si>
+  <si>
+    <t>Diarrhea</t>
+  </si>
+  <si>
+    <t>Chest X ary finding</t>
+  </si>
+  <si>
+    <t>BNP (ng/L)</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>Eosinophil</t>
+  </si>
+  <si>
+    <t>ABG (pH)</t>
+  </si>
+  <si>
+    <t>Hospital LOS</t>
+  </si>
+  <si>
+    <t>Cardiovascular risk factors</t>
+  </si>
+  <si>
+    <t>IgG anti-S1-S2 AU/ml</t>
+  </si>
+  <si>
+    <t>Chest X ray finding</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Bilirubin (µmol/L)</t>
+  </si>
+  <si>
+    <t>Bicarbonate (mmol/dl)</t>
+  </si>
+  <si>
+    <t>MCV (fl)</t>
+  </si>
+  <si>
+    <t>PCO2 (35-45 mmHg)</t>
+  </si>
+  <si>
+    <t>Troponin T (ng/mL)</t>
+  </si>
+  <si>
+    <t>Anti-cardiolipin antibody search</t>
+  </si>
+  <si>
+    <t>Basophil</t>
+  </si>
+  <si>
+    <t>Comorbidity</t>
+  </si>
+  <si>
+    <t>ECG</t>
+  </si>
+  <si>
+    <t>Urinary Analyses</t>
+  </si>
+  <si>
+    <t>Glucose mg/dl</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Myalgia</t>
+  </si>
+  <si>
+    <t>Coagulation</t>
+  </si>
+  <si>
+    <t>Differential Count</t>
+  </si>
+  <si>
+    <t>Thrombocyte count</t>
+  </si>
+  <si>
+    <t>History of thrombosis</t>
+  </si>
+  <si>
+    <t>Rhythm</t>
+  </si>
+  <si>
+    <t>Medications</t>
+  </si>
+  <si>
+    <t>PaCO2 (Torr)</t>
+  </si>
+  <si>
+    <t>Haptoglobin</t>
+  </si>
+  <si>
+    <t>DAT Anti-C3b, C3d</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SOFA</t>
+  </si>
+  <si>
+    <t>Myoglobin (ng/mL, ≤ 154.9)</t>
+  </si>
+  <si>
+    <t>Shortness of breath</t>
+  </si>
+  <si>
+    <t>Serum ferritin (μg/L)</t>
+  </si>
+  <si>
+    <t>Antinuclear antibody</t>
+  </si>
+  <si>
+    <t>Triglycerides, mg/dL</t>
+  </si>
+  <si>
+    <t>Blood glucose (4.0–5.4 mmol/L)</t>
+  </si>
+  <si>
+    <t>Mean corpuscular volume</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>Lipase</t>
+  </si>
+  <si>
+    <t>Reumatoid factor</t>
+  </si>
+  <si>
+    <t>Gamma glutamyl transferase (GGT)</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>GGT (IU/L)</t>
+  </si>
+  <si>
+    <t>Admission date</t>
+  </si>
+  <si>
+    <t>Prior to prednisolone 40 mg bid</t>
+  </si>
+  <si>
+    <t>Dyspnea</t>
+  </si>
+  <si>
+    <t>Interval between onset and admission (days)</t>
+  </si>
+  <si>
+    <t>Immunosuppressant</t>
+  </si>
+  <si>
+    <t>Creatinine level corresponding to CK (reference range 0.7-1.5 mg/dL)</t>
+  </si>
+  <si>
+    <t>First symptoms of COVID-19</t>
+  </si>
+  <si>
+    <t>Absolute neutrophil count (× 109/L)</t>
+  </si>
+  <si>
+    <t>ICU LOS (d)</t>
+  </si>
+  <si>
+    <t>MGFA before COVID-19</t>
+  </si>
+  <si>
+    <t>IL-1 Beta (&lt;3.9 pg/mL)</t>
+  </si>
+  <si>
+    <t>K(ser) mEq/L 3.6–5.9</t>
+  </si>
+  <si>
+    <t>Chloride (mmol/L)</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>Receptor-binding domain endpoint titer</t>
+  </si>
+  <si>
+    <t>HCO3 (mmol/L)</t>
+  </si>
+  <si>
+    <t>18F FDG PET/CT indication</t>
+  </si>
+  <si>
+    <t>убрать</t>
+  </si>
+  <si>
+    <t>Dialysis</t>
+  </si>
+  <si>
+    <t>MCHC (g/dl)</t>
+  </si>
+  <si>
+    <t>PO2 (80-100 mmHg)</t>
+  </si>
+  <si>
+    <t>ABO Rh</t>
+  </si>
+  <si>
+    <t>Blood pressure (mm Hg)</t>
+  </si>
+  <si>
+    <t>Urinary creatinine, mg/dL</t>
+  </si>
+  <si>
+    <t>MCH (pg)</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Sore throat</t>
+  </si>
+  <si>
+    <t>Days from COVID-19 diagnosis to stroke onset</t>
+  </si>
+  <si>
+    <t>Surgical procedure</t>
+  </si>
+  <si>
+    <t>Sputum</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Antiphospholipid antibodies</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>RT-PCR in placenta and AF</t>
+  </si>
+  <si>
+    <t>K Time (0.5-2.3 min)</t>
+  </si>
+  <si>
+    <t>Alpha-fetoprotein</t>
+  </si>
+  <si>
+    <t>Use of corticosteroid</t>
+  </si>
+  <si>
+    <t>Modified TOAST</t>
+  </si>
+  <si>
+    <t>Karnofsky performance status (KPS)</t>
+  </si>
+  <si>
+    <t>Pertinent neurological findings</t>
+  </si>
+  <si>
+    <t>2nd day after treatment</t>
+  </si>
+  <si>
+    <t>% Lysis 30 min (&lt;7.5%)</t>
+  </si>
+  <si>
+    <t>N terminal probrain natriuretic peptide (ng/L)</t>
+  </si>
+  <si>
+    <t>Simplified Acute Physiology Score II at time of admission, points</t>
+  </si>
+  <si>
+    <t>Nucleic acid recovery positive</t>
+  </si>
+  <si>
+    <t>Transplant Organ</t>
+  </si>
+  <si>
+    <t>Rhythms developed</t>
+  </si>
+  <si>
+    <t>Size of PTX</t>
+  </si>
+  <si>
+    <t>EBV PCR</t>
+  </si>
+  <si>
+    <t>Antiphospholipid serology</t>
+  </si>
+  <si>
+    <t>Neurological problem from COVID-19</t>
+  </si>
+  <si>
+    <t>DAT Saline Control</t>
+  </si>
+  <si>
+    <t>Anaemia (Hb &lt;8 g/dl)</t>
+  </si>
+  <si>
+    <t>Confirmed date by real-time RT-PCR</t>
+  </si>
+  <si>
+    <t>Days on intubation during the event</t>
+  </si>
+  <si>
+    <t>Hospital treatment time (for COVID) (days)</t>
+  </si>
+  <si>
+    <t>Immunoregulator</t>
+  </si>
+  <si>
+    <t>Diagnosis of arterial thromboembolism</t>
+  </si>
+  <si>
+    <t>MAP (mmHg), mean (range)</t>
+  </si>
+  <si>
+    <t>Blood sodium (mmol/l)</t>
+  </si>
+  <si>
+    <t>Respiratory support</t>
+  </si>
+  <si>
+    <t>AAV treatment</t>
+  </si>
+  <si>
+    <t>Peripheral blood smear</t>
+  </si>
+  <si>
+    <t>TNF-α (pg/ml, &lt; 8.1)</t>
+  </si>
+  <si>
+    <t>Infection-related biomarkers</t>
+  </si>
+  <si>
+    <t>Day of second episode</t>
+  </si>
+  <si>
+    <t>Duration of immobilization (days)</t>
+  </si>
+  <si>
+    <t>Vitamin B12</t>
+  </si>
+  <si>
+    <t>Prone positioning, hr</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>Days to readmission</t>
+  </si>
+  <si>
+    <t>Clinical probability of VTE according to Wells' criteria</t>
+  </si>
+  <si>
+    <t>Mean corpuscular hemoglobin concentration</t>
+  </si>
+  <si>
+    <t>Cranial nerve involvement</t>
+  </si>
+  <si>
+    <t>Immuno-histo-chemistry p53 mutation</t>
+  </si>
+  <si>
+    <t>Computed tomography with IV contrast</t>
+  </si>
+  <si>
+    <t>IL-10 (&lt;2.00 pg/mL)</t>
+  </si>
+  <si>
+    <t>hsTpnT (normal ≤22 ng/L)</t>
+  </si>
+  <si>
+    <t>NT-pro-B-type natriuretic peptide (NT-pro-BNP) (pg/mL)</t>
+  </si>
+  <si>
+    <t>Indirect bilirubin (2-17umol/ L)</t>
+  </si>
+  <si>
+    <t>MGFA classification at discharge</t>
+  </si>
+  <si>
+    <t>Time to volatile sedation, d</t>
+  </si>
+  <si>
+    <t>MGCS at admission</t>
+  </si>
+  <si>
+    <t>Pre-stroke mRS (0-5)</t>
+  </si>
+  <si>
+    <t>Department at time of diagnosis of arterial thromboembolism</t>
+  </si>
+  <si>
+    <t>Dexamethasone</t>
+  </si>
+  <si>
+    <t>Bacterial pneumonia</t>
+  </si>
+  <si>
+    <t>Time from illness onset to first hospital admission (days)</t>
+  </si>
+  <si>
+    <t>Day 1 with isoflurane sedation (data were collected at 4 am on the first day after isoflurane treatment began)</t>
+  </si>
+  <si>
+    <t>Blood routine</t>
+  </si>
+  <si>
+    <t>NCS findings</t>
+  </si>
+  <si>
+    <t>Serum inflammatory markers</t>
+  </si>
+  <si>
+    <t>Liver function tests</t>
+  </si>
+  <si>
+    <t>Possible mechanism of neuronal injury</t>
+  </si>
+  <si>
+    <t>Protein immunoelectrophoresis</t>
+  </si>
+  <si>
+    <t>C4 (mg/dL)</t>
+  </si>
+  <si>
+    <t>Suspicious clinical features</t>
+  </si>
+  <si>
+    <t>Stomach ache</t>
+  </si>
+  <si>
+    <t>Haemorrhagic transformation</t>
+  </si>
+  <si>
+    <t>4th day after treatment</t>
+  </si>
+  <si>
+    <t>Days from COVID-19 symptom onset to ICU admission</t>
+  </si>
+  <si>
+    <t>Seizure semiology</t>
+  </si>
+  <si>
+    <t>Antithrombotic treatment at time of ICH</t>
+  </si>
+  <si>
+    <t>VDRL</t>
+  </si>
+  <si>
+    <t>Analgesia</t>
+  </si>
+  <si>
+    <t>Organ involvement prior to ICH</t>
+  </si>
+  <si>
+    <t>ASAT (IU/L)</t>
+  </si>
+  <si>
+    <t>Blood biochemistry</t>
+  </si>
+  <si>
+    <t>AMI indexes</t>
+  </si>
+  <si>
+    <t>Histopathology Necrosis</t>
+  </si>
+  <si>
+    <t>Parity</t>
+  </si>
+  <si>
+    <t>Type of VTE</t>
+  </si>
+  <si>
+    <t>Globulin (g/L, 20~35)</t>
+  </si>
+  <si>
+    <t>Location of hematoma</t>
+  </si>
+  <si>
+    <t>MGCS at discharge</t>
+  </si>
+  <si>
+    <t>Positive serology</t>
+  </si>
+  <si>
+    <t>Ascites</t>
+  </si>
+  <si>
+    <t>Nadir HR (b.p.m.)</t>
+  </si>
+  <si>
+    <t>Arterial blood gas (ABG)</t>
+  </si>
+  <si>
+    <t>Antiarrhythmics</t>
+  </si>
+  <si>
+    <t>Total iron-binding capacity</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>ASO titer</t>
+  </si>
+  <si>
+    <t>Ammonia concentration</t>
+  </si>
+  <si>
+    <t>DVT prophylaxis</t>
+  </si>
+  <si>
+    <t>Total cholesterol (&lt;5.2 mmol/L)</t>
+  </si>
+  <si>
+    <t>Serum albumin</t>
+  </si>
+  <si>
+    <t>FBS mg/dl 70–115</t>
+  </si>
+  <si>
+    <t>Vasopression/inotropy during admission</t>
+  </si>
+  <si>
+    <t>Serologic studies including ANA,DSDNA, P-ANCA, C-ANCA, APL complements</t>
+  </si>
+  <si>
+    <t>Urinary protein, mg/dL</t>
+  </si>
+  <si>
+    <t>Days ill before hospitalisation</t>
+  </si>
+  <si>
+    <t>SF ratio</t>
+  </si>
+  <si>
+    <t>Chest tightness</t>
+  </si>
+  <si>
+    <t>Pressors</t>
+  </si>
+  <si>
+    <t>Source of infection</t>
+  </si>
+  <si>
+    <t>Stroke type</t>
+  </si>
+  <si>
+    <t>Signs and symptoms of pulmonary embolism</t>
+  </si>
+  <si>
+    <t>HCV serology</t>
+  </si>
+  <si>
+    <t>Time between symptom onset and ICH identification (days)</t>
+  </si>
+  <si>
+    <t>Transthoracic Echocardiogram</t>
+  </si>
+  <si>
+    <t>Chronic MG treatment</t>
+  </si>
+  <si>
+    <t>Symptoms attributable to PRES</t>
+  </si>
+  <si>
+    <t>Anxiety, depression</t>
+  </si>
+  <si>
+    <t>Histopathology Lymphocytic infiltration</t>
+  </si>
+  <si>
+    <t>Melaena</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Other vascular imaging</t>
+  </si>
+  <si>
+    <t>Treatment for SAH</t>
+  </si>
+  <si>
+    <t>Clonidine, µg kg–1 hr–1</t>
+  </si>
+  <si>
+    <t>Large vessel occlusion</t>
+  </si>
+  <si>
+    <t>Readmission O2 requirement (L)</t>
+  </si>
+  <si>
+    <t>History of MG (y)</t>
+  </si>
+  <si>
+    <t>Dexmedetomidine, µg kg–1 hr–1</t>
+  </si>
+  <si>
+    <t>Immuno-histo-chemistry Ki-67</t>
+  </si>
+  <si>
+    <t>After termination of isoflurane (data after termination of isoflurane were collected in the first 30 min after the change of volatile to IV sedation)</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Lormetazepam, mg kg–1 min–1</t>
+  </si>
+  <si>
+    <t>Drinking history</t>
+  </si>
+  <si>
+    <t>Bilateral or Unilateral Pneumothorax</t>
+  </si>
+  <si>
+    <t>Type of surgery</t>
+  </si>
+  <si>
+    <t>Abdominal pain</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 IgG (Abbot)</t>
+  </si>
+  <si>
+    <t>Propofol, mg kg–1 hr–1</t>
+  </si>
+  <si>
+    <t>Time from HCT to COVID-19 symptoms</t>
+  </si>
+  <si>
+    <t>HIV serology</t>
+  </si>
+  <si>
+    <t>Vasopressors</t>
+  </si>
+  <si>
+    <t>High-density lipoprotein (HDL) (&gt;1 mmol/L)</t>
+  </si>
+  <si>
+    <t>SGOT(AST) IU/L Female up to 31Male: &lt; 40</t>
+  </si>
+  <si>
+    <t>Na(ser) mEq/L 138–145</t>
+  </si>
+  <si>
+    <t>Hospital admission</t>
+  </si>
+  <si>
+    <t>Acute treatment of stroke</t>
+  </si>
+  <si>
+    <t>Mg (normal 1.6–2.4 mg/dL)</t>
+  </si>
+  <si>
+    <t>Date at onset of symptoms</t>
+  </si>
+  <si>
+    <t>Severity on diagnosis of pneumonia</t>
+  </si>
+  <si>
+    <t>Readmission imaging</t>
+  </si>
+  <si>
+    <t>Levels of CK and other inflammatory markers at time of diagnosis of SARS-CoV-2 infection</t>
+  </si>
+  <si>
+    <t>Stroke features</t>
+  </si>
+  <si>
+    <t>Fungal pneumonia</t>
+  </si>
+  <si>
+    <t>CTV/MRV findings</t>
+  </si>
+  <si>
+    <t>Since hospital admission</t>
+  </si>
+  <si>
+    <t>Thromboembolic event</t>
+  </si>
+  <si>
+    <t>NP swabs after 18F FDG PET/CT</t>
+  </si>
+  <si>
+    <t>Anion Gap (mmol/L)</t>
+  </si>
+  <si>
+    <t>CCP units transfused</t>
+  </si>
+  <si>
+    <t>Days from onset to using corticosteroid, days</t>
+  </si>
+  <si>
+    <t>QT-prolonging drugs</t>
+  </si>
+  <si>
+    <t>Fisher grade for SAH</t>
+  </si>
+  <si>
+    <t>Onset of PRES from hospitalization</t>
+  </si>
+  <si>
+    <t>CRRT</t>
+  </si>
+  <si>
+    <t>EEG findings</t>
+  </si>
+  <si>
+    <t>Location of clot</t>
+  </si>
+  <si>
+    <t>Glucocorticoids</t>
+  </si>
+  <si>
+    <t>Dark urine</t>
+  </si>
+  <si>
+    <t>Brain(online supplementary figures S1 and S2)</t>
+  </si>
+  <si>
+    <t>Histopathology MVP</t>
+  </si>
+  <si>
+    <t>Creatinase isoenzyme (0–26 U/L)</t>
+  </si>
+  <si>
+    <t>Kidney pathology</t>
+  </si>
+  <si>
+    <t>APACHE IV score</t>
+  </si>
+  <si>
+    <t>Hct % Female: 36–44.5Male: 41.5–50.4</t>
+  </si>
+  <si>
+    <t>ARDS</t>
+  </si>
+  <si>
+    <t>IV sedation prior to isoflurane, mean ± sd</t>
+  </si>
+  <si>
+    <t>Hospital day of CCP</t>
+  </si>
+  <si>
+    <t>Schizocytes search</t>
+  </si>
+  <si>
+    <t>Basic disease</t>
+  </si>
+  <si>
+    <t>After treatment</t>
+  </si>
+  <si>
+    <t>Low-density lipoprotein (LDL) (&lt;3.4 mmol/L)</t>
+  </si>
+  <si>
+    <t>SpO2 (%)</t>
+  </si>
+  <si>
+    <t>Folate</t>
+  </si>
+  <si>
+    <t>Day of illness</t>
+  </si>
+  <si>
+    <t>Maximum Richmond-Agitation-Sedation Scale deviation from required sedation deptha</t>
+  </si>
+  <si>
+    <t>C3 (mg/dL)</t>
+  </si>
+  <si>
+    <t>Type and duration of symptoms</t>
+  </si>
+  <si>
+    <t>Blood potassium (mmol/l)</t>
+  </si>
+  <si>
+    <t>Admission/ peak D dimer (ng/mL)†</t>
+  </si>
+  <si>
+    <t>Histological type</t>
+  </si>
+  <si>
+    <t>Etiological exploration</t>
+  </si>
+  <si>
+    <t>New Antibodies in Serum</t>
+  </si>
+  <si>
+    <t>ClCr, ml/min</t>
+  </si>
+  <si>
+    <t>Improvement/deterioration after surgery</t>
+  </si>
+  <si>
+    <t>Peak value for CK and other inflammatory markers</t>
+  </si>
+  <si>
+    <t>Duration of volatile sedation, hr</t>
+  </si>
+  <si>
+    <t>Hospitalization after SARS-CoV-2 diagnosis (days)</t>
+  </si>
+  <si>
+    <t>Immuno-histo-chemistry ATRX</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>pTNM</t>
+  </si>
+  <si>
+    <t>Cerebrovascular Imaging</t>
+  </si>
+  <si>
+    <t>Subcutaneous emphysema orpneumomediastinum</t>
+  </si>
+  <si>
+    <t>Reticulocyte percent</t>
+  </si>
+  <si>
+    <t>K+ (normal 3.5–5.1 mmol/L)</t>
+  </si>
+  <si>
+    <t>Adjuvant TMZ</t>
+  </si>
+  <si>
+    <t>Hydrocephalus</t>
+  </si>
+  <si>
+    <t>DAT Anti-IgG</t>
+  </si>
+  <si>
+    <t>Child–Pugh class</t>
+  </si>
+  <si>
+    <t>Intravenous immunoglobulin</t>
+  </si>
+  <si>
+    <t>Placental and fetal histopathology</t>
+  </si>
+  <si>
+    <t>B lymphocyte immunophenotyping</t>
+  </si>
+  <si>
+    <t>Vessel imaging</t>
+  </si>
+  <si>
+    <t>Cholinesterase</t>
+  </si>
+  <si>
+    <t>ECMO</t>
+  </si>
+  <si>
+    <t>No Toxic Granules Seen</t>
+  </si>
+  <si>
+    <t>Total protein/albumin, 6.1-8.1/ 3.4-4.7 g/dL</t>
+  </si>
+  <si>
+    <t>Aortic thrombosis type</t>
+  </si>
+  <si>
+    <t>Time to onset, days</t>
+  </si>
+  <si>
+    <t>Total leucocyte count (x103/μL)</t>
+  </si>
+  <si>
+    <t>Jaundice/icterus</t>
+  </si>
+  <si>
+    <t>Underlying pulmonary diseases</t>
+  </si>
+  <si>
+    <t>Palpitations</t>
+  </si>
+  <si>
+    <t>Transplant Year</t>
+  </si>
+  <si>
+    <t>Lymphopenia (&lt;0.4 × 109/l)</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Nasal catheter</t>
+  </si>
+  <si>
+    <t>CMV PCR</t>
+  </si>
+  <si>
+    <t>Immuno-histo-chemistry Cytokeratin, TTF1 CD45, CD3, CD20, Neurofilament protein and Neu N</t>
+  </si>
+  <si>
+    <t>Pleural effusion</t>
+  </si>
+  <si>
+    <t>Hydroxychloroquine dependent RBC antibody</t>
+  </si>
+  <si>
+    <t>Pertinent medical history</t>
+  </si>
+  <si>
+    <t>Induction treatment</t>
+  </si>
+  <si>
+    <t>DAT Polyspecific</t>
+  </si>
+  <si>
+    <t>Acute on chronic liver failure</t>
+  </si>
+  <si>
+    <t>COVID-19 PCR follow up</t>
+  </si>
+  <si>
+    <t>Type of CHD</t>
+  </si>
+  <si>
+    <t>ST/T-wave changes</t>
+  </si>
+  <si>
+    <t>Severity of pneumothorax</t>
+  </si>
+  <si>
+    <t>Ceftriaxone dependent RBC antibody</t>
+  </si>
+  <si>
+    <t>DIC-score (ISTH)</t>
+  </si>
+  <si>
+    <t>The time between the onset of COVID-19 infection and onset of ICH (days)</t>
+  </si>
+  <si>
+    <t>OI (400-500 mmHg)</t>
+  </si>
+  <si>
+    <t>FEV1 l (%), n (%)</t>
+  </si>
+  <si>
+    <t>Additional therapies</t>
+  </si>
+  <si>
+    <t>Modified Rankin Scale (mRS, 0–6) (discharge)</t>
+  </si>
+  <si>
+    <t>Nasopharyngeal swab</t>
+  </si>
+  <si>
+    <t>Immuno-histo-chemistry IDH1R132H mutation</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Poor appetite</t>
+  </si>
+  <si>
+    <t>Digital subtraction angiography (DSA)</t>
+  </si>
+  <si>
+    <t>Stroke symptom and signs</t>
+  </si>
+  <si>
+    <t>Time from initial COVID-19 diagnosis</t>
+  </si>
+  <si>
+    <t>Convalescent plasma therapy</t>
+  </si>
+  <si>
+    <t>Pneumonic infiltration compatible with COVID (%)</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>PR (ms)</t>
+  </si>
+  <si>
+    <t>Period from initial symptoms to diagnosis of pneumonia (days)</t>
+  </si>
+  <si>
+    <t>Superimposed pneumonia</t>
+  </si>
+  <si>
+    <t>Skin pathology</t>
+  </si>
+  <si>
+    <t>Esketamine, mg kg–1 hr–1</t>
+  </si>
+  <si>
+    <t>Sample type</t>
+  </si>
+  <si>
+    <t>ProphylacticAnticoagulation</t>
+  </si>
+  <si>
+    <t>Serum phosphate (mg/dl)</t>
+  </si>
+  <si>
+    <t>Delivery details</t>
+  </si>
+  <si>
+    <t>SGPT (U/L)</t>
+  </si>
+  <si>
+    <t>Midazolam, mg kg–1 hr–1</t>
+  </si>
+  <si>
+    <t>Anti-PF4 antibody search</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Modified Rankine Score at time of writing (0–6)</t>
+  </si>
+  <si>
+    <t>Urinary dipstick</t>
+  </si>
+  <si>
+    <t>Glutamyl transpeptidase (8- 58 U/L)</t>
+  </si>
+  <si>
+    <t>PT-INR (0,8-1,2)</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 PCR (date &amp;CTV)</t>
+  </si>
+  <si>
+    <t>Exposure history</t>
+  </si>
+  <si>
+    <t>Urinary sodium, mEq/L</t>
+  </si>
+  <si>
+    <t>N-terminal pro-B-type natriuretic peptide (pg/mL, &lt; 241)</t>
+  </si>
+  <si>
+    <t>γ-Glutamyltransferase, U/L</t>
+  </si>
+  <si>
+    <t>Follow up after hydroxychloroquine and heparin</t>
+  </si>
+  <si>
+    <t>Anticoagulation before thrombotic event</t>
+  </si>
+  <si>
+    <t>NLR</t>
+  </si>
+  <si>
+    <t>Hospital day conduction disease developed</t>
+  </si>
+  <si>
+    <t>Complement C4 (g/L)</t>
+  </si>
+  <si>
+    <t>Immuno-histo-chemistry 1p/19q codeletion</t>
+  </si>
+  <si>
+    <t>Chest drain duration (days)</t>
+  </si>
+  <si>
+    <t>Days of immune booster use</t>
+  </si>
+  <si>
+    <t>Corticosteroids</t>
+  </si>
+  <si>
+    <t>Arterial event</t>
+  </si>
+  <si>
+    <t>Sufentanil, µg kg–1 hr–1, mean ± sd</t>
+  </si>
+  <si>
+    <t>Postoperative hospital stay (days)</t>
+  </si>
+  <si>
+    <t>Anti-glycoprotein IIb/IIIa antibody search</t>
+  </si>
+  <si>
+    <t>Alpha angle (64°-80°)</t>
+  </si>
+  <si>
+    <t>MELD score</t>
+  </si>
+  <si>
+    <t>Clinical presentation Neurological deficit</t>
+  </si>
+  <si>
+    <t>Acute kidney injury</t>
+  </si>
+  <si>
+    <t>Histopathology Percentage of small cell component (%)</t>
+  </si>
+  <si>
+    <t>GA at fetal death, weeks</t>
+  </si>
+  <si>
+    <t>Pro-b-type natriuretic peptide (pg/mL)</t>
+  </si>
+  <si>
+    <t>Viral load CT value (upE gene)</t>
+  </si>
+  <si>
+    <t>Bloating</t>
+  </si>
+  <si>
+    <t>SGPT(ALT) IU/L Female: &lt; 31Male: &lt; 45</t>
+  </si>
+  <si>
+    <t>Max amplitude (52-57 mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> убрать</t>
+  </si>
+  <si>
+    <t>Serum magnesium (mg/dl)</t>
+  </si>
+  <si>
+    <t>Nasal congestion</t>
+  </si>
+  <si>
+    <t>Thoracic imaging</t>
+  </si>
+  <si>
+    <t>Red blood cell distribution width</t>
   </si>
   <si>
     <t>Serum creatinine</t>
   </si>
   <si>
-    <t>COVID-19 disease severity</t>
-  </si>
-  <si>
-    <t>Lactate</t>
-  </si>
-  <si>
-    <t>Troponin I</t>
-  </si>
-  <si>
-    <t>Laboratory findings</t>
-  </si>
-  <si>
-    <t>Therapy</t>
-  </si>
-  <si>
-    <t>MRI Findings</t>
-  </si>
-  <si>
-    <t>Age - year/ Sex</t>
-  </si>
-  <si>
-    <t>Oxygen therapy</t>
-  </si>
-  <si>
-    <t>Hospital LOS (d)</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>NIHSS</t>
-  </si>
-  <si>
-    <t>ICU admission</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Hematocrit (%)</t>
-  </si>
-  <si>
-    <t>GFR (ml/min)</t>
-  </si>
-  <si>
-    <t>Sodium (mEq/L)</t>
-  </si>
-  <si>
-    <t>Absolute reticulocyte count</t>
-  </si>
-  <si>
-    <t>Monocytes</t>
-  </si>
-  <si>
-    <t>Highest temperature, °C</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Duration of symptoms</t>
-  </si>
-  <si>
-    <t>Potassium (mEq/L)</t>
-  </si>
-  <si>
-    <t>Risc factors</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Urea (mmol/L)</t>
-  </si>
-  <si>
-    <t>Imaging features</t>
-  </si>
-  <si>
-    <t>COVID diagnosis</t>
-  </si>
-  <si>
-    <t>RBC Count</t>
-  </si>
-  <si>
-    <t>Blood urea nitrogen (mg/dL)</t>
-  </si>
-  <si>
-    <t>Troponin (ng/L)</t>
-  </si>
-  <si>
-    <t>Leukocyte count</t>
-  </si>
-  <si>
-    <t>Chest X ary finding</t>
-  </si>
-  <si>
-    <t>Cough</t>
-  </si>
-  <si>
-    <t>BUN</t>
-  </si>
-  <si>
-    <t>IgG anti-S1-S2 AU/ml</t>
-  </si>
-  <si>
-    <t>ABG (pH)</t>
-  </si>
-  <si>
-    <t>Cardiovascular risk factors</t>
-  </si>
-  <si>
-    <t>BNP (ng/L)</t>
-  </si>
-  <si>
-    <t>Diarrhea</t>
-  </si>
-  <si>
-    <t>Eosinophil</t>
-  </si>
-  <si>
-    <t>Hospital LOS</t>
-  </si>
-  <si>
-    <t>Coagulation</t>
-  </si>
-  <si>
-    <t>Chest X ray finding</t>
-  </si>
-  <si>
-    <t>ECG</t>
-  </si>
-  <si>
-    <t>Chest</t>
-  </si>
-  <si>
-    <t>Rhythm</t>
-  </si>
-  <si>
-    <t>History of thrombosis</t>
-  </si>
-  <si>
-    <t>Urinary Analyses</t>
-  </si>
-  <si>
-    <t>MCV (fl)</t>
-  </si>
-  <si>
-    <t>Bicarbonate (mmol/dl)</t>
-  </si>
-  <si>
-    <t>Thrombocyte count</t>
-  </si>
-  <si>
-    <t>Anti-cardiolipin antibody search</t>
-  </si>
-  <si>
-    <t>Glucose mg/dl</t>
-  </si>
-  <si>
-    <t>Comorbidity</t>
-  </si>
-  <si>
-    <t>Basophil</t>
-  </si>
-  <si>
-    <t>Medications</t>
-  </si>
-  <si>
-    <t>Differential Count</t>
-  </si>
-  <si>
-    <t>PCO2 (35-45 mmHg)</t>
-  </si>
-  <si>
-    <t>Nausea</t>
-  </si>
-  <si>
-    <t>Bilirubin (µmol/L)</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Myalgia</t>
-  </si>
-  <si>
-    <t>Troponin T (ng/mL)</t>
-  </si>
-  <si>
-    <t>18F FDG PET/CT indication</t>
-  </si>
-  <si>
-    <t>Sputum</t>
-  </si>
-  <si>
-    <t>Dyspnea</t>
-  </si>
-  <si>
-    <t>Myoglobin (ng/mL, ≤ 154.9)</t>
-  </si>
-  <si>
-    <t>Haptoglobin</t>
-  </si>
-  <si>
-    <t>IL-1 Beta (&lt;3.9 pg/mL)</t>
-  </si>
-  <si>
-    <t>DAT Anti-C3b, C3d</t>
-  </si>
-  <si>
-    <t>Urinary creatinine, mg/dL</t>
-  </si>
-  <si>
-    <t>First symptoms of COVID-19</t>
-  </si>
-  <si>
-    <t>ABO Rh</t>
-  </si>
-  <si>
-    <t>Interval between onset and admission (days)</t>
-  </si>
-  <si>
-    <t>Chloride (mmol/L)</t>
-  </si>
-  <si>
-    <t>Shortness of breath</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>MGFA before COVID-19</t>
-  </si>
-  <si>
-    <t>Receptor-binding domain endpoint titer</t>
-  </si>
-  <si>
-    <t>Serum ferritin (μg/L)</t>
-  </si>
-  <si>
-    <t>убрать</t>
-  </si>
-  <si>
-    <t>CSF</t>
-  </si>
-  <si>
-    <t>Absolute neutrophil count (× 109/L)</t>
-  </si>
-  <si>
-    <t>Antiphospholipid antibodies</t>
-  </si>
-  <si>
-    <t>Creatinine level corresponding to CK (reference range 0.7-1.5 mg/dL)</t>
-  </si>
-  <si>
-    <t>Days from COVID-19 diagnosis to stroke onset</t>
-  </si>
-  <si>
-    <t>ICU LOS (d)</t>
-  </si>
-  <si>
-    <t>MCH (pg)</t>
-  </si>
-  <si>
-    <t>PaCO2 (Torr)</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>GGT (IU/L)</t>
-  </si>
-  <si>
-    <t>Reumatoid factor</t>
-  </si>
-  <si>
-    <t>Blood glucose (4.0–5.4 mmol/L)</t>
-  </si>
-  <si>
-    <t>Dialysis</t>
-  </si>
-  <si>
-    <t>Surgical procedure</t>
-  </si>
-  <si>
-    <t>Lipase</t>
-  </si>
-  <si>
-    <t>SOFA</t>
-  </si>
-  <si>
-    <t>Admission date</t>
-  </si>
-  <si>
-    <t>PO2 (80-100 mmHg)</t>
-  </si>
-  <si>
-    <t>Headache</t>
-  </si>
-  <si>
-    <t>Prior to prednisolone 40 mg bid</t>
-  </si>
-  <si>
-    <t>Fatigue</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>K(ser) mEq/L 3.6–5.9</t>
-  </si>
-  <si>
-    <t>Blood pressure (mm Hg)</t>
-  </si>
-  <si>
-    <t>Gamma glutamyl transferase (GGT)</t>
-  </si>
-  <si>
-    <t>Sore throat</t>
-  </si>
-  <si>
-    <t>Antinuclear antibody</t>
-  </si>
-  <si>
-    <t>HCO3 (mmol/L)</t>
-  </si>
-  <si>
-    <t>Immunosuppressant</t>
-  </si>
-  <si>
-    <t>Mean corpuscular volume</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Triglycerides, mg/dL</t>
-  </si>
-  <si>
-    <t>MCHC (g/dl)</t>
+    <t>Antibiotics used before onset of neurological symptoms</t>
+  </si>
+  <si>
+    <t>Antioxidant therapy</t>
+  </si>
+  <si>
+    <t>Prophylactic antimicrobials</t>
+  </si>
+  <si>
+    <t>Na, 134-144 mmol/L</t>
+  </si>
+  <si>
+    <t>Pulmonary Hypertension</t>
+  </si>
+  <si>
+    <t>Negative by PERC Criteria</t>
+  </si>
+  <si>
+    <t>Ionized calcium, mEq/L</t>
+  </si>
+  <si>
+    <t>Renal replacement therapy</t>
+  </si>
+  <si>
+    <t>Second episode symptoms</t>
+  </si>
+  <si>
+    <t>QRS (ms)</t>
+  </si>
+  <si>
+    <t>Concurrent TMZ</t>
+  </si>
+  <si>
+    <t>Historical HR (b.p.m.)</t>
+  </si>
+  <si>
+    <t>Virus culture</t>
+  </si>
+  <si>
+    <t>Recovery CK and other inflammatory markers prior to discharge</t>
+  </si>
+  <si>
+    <t>Stem cell Transplant type</t>
+  </si>
+  <si>
+    <t>Chief complaint</t>
+  </si>
+  <si>
+    <t>Antiplatelet/anticoagulant</t>
+  </si>
+  <si>
+    <t>ACEI or ARB</t>
+  </si>
+  <si>
+    <t>Hematological disease</t>
+  </si>
+  <si>
+    <t>Location of ICH</t>
+  </si>
+  <si>
+    <t>Thrombosis clinic after how many days after discharge (days)</t>
   </si>
   <si>
     <t>HBV serology</t>
   </si>
   <si>
-    <t>Child–Pugh class</t>
-  </si>
-  <si>
-    <t>Dexamethasone</t>
-  </si>
-  <si>
-    <t>Lormetazepam, mg kg–1 min–1</t>
-  </si>
-  <si>
-    <t>Readmission O2 requirement (L)</t>
-  </si>
-  <si>
-    <t>Postoperative hospital stay (days)</t>
-  </si>
-  <si>
-    <t>QRS (ms)</t>
-  </si>
-  <si>
-    <t>Delivery details</t>
-  </si>
-  <si>
-    <t>ClCr, ml/min</t>
-  </si>
-  <si>
-    <t>Source of infection</t>
-  </si>
-  <si>
-    <t>Aortic thrombosis type</t>
-  </si>
-  <si>
-    <t>Diagnosis of arterial thromboembolism</t>
-  </si>
-  <si>
-    <t>Jaundice/icterus</t>
-  </si>
-  <si>
-    <t>RT-PCR in placenta and AF</t>
-  </si>
-  <si>
     <t>Approximate date after Covid-19 when stroke diagnosed</t>
   </si>
   <si>
-    <t>Pertinent medical history</t>
-  </si>
-  <si>
-    <t>Abdominal pain</t>
-  </si>
-  <si>
-    <t>Organ involvement prior to ICH</t>
-  </si>
-  <si>
-    <t>Histopathology Necrosis</t>
-  </si>
-  <si>
-    <t>Creatinase isoenzyme (0–26 U/L)</t>
-  </si>
-  <si>
-    <t>Concurrent TMZ</t>
-  </si>
-  <si>
-    <t>Serologic studies including ANA,DSDNA, P-ANCA, C-ANCA, APL complements</t>
-  </si>
-  <si>
-    <t>Seizure semiology</t>
-  </si>
-  <si>
-    <t>Immuno-histo-chemistry 1p/19q codeletion</t>
-  </si>
-  <si>
-    <t>Antiphospholipid serology</t>
-  </si>
-  <si>
-    <t>hsTpnT (normal ≤22 ng/L)</t>
-  </si>
-  <si>
-    <t>Midazolam, mg kg–1 hr–1</t>
-  </si>
-  <si>
-    <t>Subcutaneous emphysema orpneumomediastinum</t>
-  </si>
-  <si>
-    <t>SpO2 (%)</t>
-  </si>
-  <si>
-    <t>Hospital treatment time (for COVID) (days)</t>
-  </si>
-  <si>
-    <t>Alpha angle (64°-80°)</t>
-  </si>
-  <si>
-    <t>Serum albumin</t>
-  </si>
-  <si>
-    <t>Second episode symptoms</t>
-  </si>
-  <si>
-    <t>Adjuvant TMZ</t>
-  </si>
-  <si>
-    <t>Chest tightness</t>
-  </si>
-  <si>
-    <t>The time between the onset of COVID-19 infection and onset of ICH (days)</t>
-  </si>
-  <si>
-    <t>Mg (normal 1.6–2.4 mg/dL)</t>
-  </si>
-  <si>
-    <t>N-terminal pro-B-type natriuretic peptide (pg/mL, &lt; 241)</t>
-  </si>
-  <si>
-    <t>Levels of CK and other inflammatory markers at time of diagnosis of SARS-CoV-2 infection</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
-    <t>DVT prophylaxis</t>
-  </si>
-  <si>
-    <t>γ-Glutamyltransferase, U/L</t>
-  </si>
-  <si>
-    <t>Glutamyl transpeptidase (8- 58 U/L)</t>
-  </si>
-  <si>
-    <t>Nasal congestion</t>
-  </si>
-  <si>
-    <t>Anxiety, depression</t>
-  </si>
-  <si>
-    <t>Location of hematoma</t>
-  </si>
-  <si>
-    <t>Mean corpuscular hemoglobin concentration</t>
-  </si>
-  <si>
-    <t>Admission/ peak D dimer (ng/mL)†</t>
-  </si>
-  <si>
-    <t>Intravenous immunoglobulin</t>
-  </si>
-  <si>
-    <t>PORT</t>
-  </si>
-  <si>
-    <t>Arterial event</t>
-  </si>
-  <si>
-    <t>Day 1 with isoflurane sedation (data were collected at 4 am on the first day after isoflurane treatment began)</t>
-  </si>
-  <si>
-    <t>Karnofsky performance status (KPS)</t>
-  </si>
-  <si>
-    <t>Simplified Acute Physiology Score II at time of admission, points</t>
-  </si>
-  <si>
-    <t>FBS mg/dl 70–115</t>
-  </si>
-  <si>
-    <t>Renal replacement therapy</t>
-  </si>
-  <si>
-    <t>Modified Rankin Scale (mRS, 0–6) (discharge)</t>
-  </si>
-  <si>
-    <t>Type of surgery</t>
-  </si>
-  <si>
-    <t>Cholinesterase</t>
-  </si>
-  <si>
-    <t>Pulmonary Hypertension</t>
-  </si>
-  <si>
-    <t>Shock</t>
-  </si>
-  <si>
-    <t>Parity</t>
-  </si>
-  <si>
-    <t>Indirect bilirubin (2-17umol/ L)</t>
-  </si>
-  <si>
-    <t>Severity on diagnosis of pneumonia</t>
-  </si>
-  <si>
-    <t>Pre-stroke mRS (0-5)</t>
-  </si>
-  <si>
-    <t>Neurological problem from COVID-19</t>
-  </si>
-  <si>
-    <t>Stroke type</t>
-  </si>
-  <si>
-    <t>Anticoagulation before thrombotic event</t>
-  </si>
-  <si>
-    <t>Clinical presentation Neurological deficit</t>
-  </si>
-  <si>
-    <t>Exposure history</t>
-  </si>
-  <si>
-    <t>HCV serology</t>
-  </si>
-  <si>
-    <t>FEV1 l (%), n (%)</t>
-  </si>
-  <si>
-    <t>CMV PCR</t>
-  </si>
-  <si>
-    <t>Time to volatile sedation, d</t>
-  </si>
-  <si>
-    <t>Stomach ache</t>
-  </si>
-  <si>
-    <t>C3 (mg/dL)</t>
-  </si>
-  <si>
-    <t>Palpitations</t>
-  </si>
-  <si>
-    <t>Low-density lipoprotein (LDL) (&lt;3.4 mmol/L)</t>
-  </si>
-  <si>
-    <t>Hospital admission</t>
-  </si>
-  <si>
-    <t>MELD score</t>
-  </si>
-  <si>
-    <t>Severity of pneumothorax</t>
-  </si>
-  <si>
-    <t>Liver function tests</t>
-  </si>
-  <si>
-    <t>Antithrombotic treatment at time of ICH</t>
-  </si>
-  <si>
-    <t>Location of ICH</t>
-  </si>
-  <si>
-    <t>ACEI or ARB</t>
-  </si>
-  <si>
-    <t>Maximum Richmond-Agitation-Sedation Scale deviation from required sedation deptha</t>
-  </si>
-  <si>
-    <t>CTV/MRV findings</t>
-  </si>
-  <si>
-    <t>Clonidine, µg kg–1 hr–1</t>
-  </si>
-  <si>
-    <t>Blood potassium (mmol/l)</t>
-  </si>
-  <si>
-    <t>Esketamine, mg kg–1 hr–1</t>
-  </si>
-  <si>
-    <t>Chief complaint</t>
-  </si>
-  <si>
-    <t>Stroke features</t>
-  </si>
-  <si>
-    <t>Corticosteroids</t>
-  </si>
-  <si>
-    <t>Arterial blood gas (ABG)</t>
-  </si>
-  <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>Hematological disease</t>
-  </si>
-  <si>
-    <t>Day of illness</t>
-  </si>
-  <si>
-    <t>Sample type</t>
-  </si>
-  <si>
-    <t>Nucleic acid recovery positive</t>
-  </si>
-  <si>
-    <t>Additional therapies</t>
-  </si>
-  <si>
-    <t>Date at onset of symptoms</t>
-  </si>
-  <si>
-    <t>Confirmed date by real-time RT-PCR</t>
-  </si>
-  <si>
-    <t>Na(ser) mEq/L 138–145</t>
-  </si>
-  <si>
-    <t>Transplant Organ</t>
-  </si>
-  <si>
-    <t>K Time (0.5-2.3 min)</t>
-  </si>
-  <si>
-    <t>PT-INR (0,8-1,2)</t>
-  </si>
-  <si>
-    <t>After treatment</t>
-  </si>
-  <si>
-    <t>NCS findings</t>
-  </si>
-  <si>
-    <t>Histopathology Lymphocytic infiltration</t>
-  </si>
-  <si>
-    <t>Cardiomyopathy</t>
-  </si>
-  <si>
-    <t>Superimposed pneumonia</t>
-  </si>
-  <si>
-    <t>Serum inflammatory markers</t>
-  </si>
-  <si>
-    <t>Underlying pulmonary diseases</t>
-  </si>
-  <si>
-    <t>Etiological exploration</t>
-  </si>
-  <si>
-    <t>Cerebrovascular Imaging</t>
-  </si>
-  <si>
-    <t>Prone positioning, hr</t>
-  </si>
-  <si>
-    <t>Folate</t>
-  </si>
-  <si>
-    <t>Thromboembolic event</t>
-  </si>
-  <si>
-    <t>Nasal catheter</t>
-  </si>
-  <si>
-    <t>Immuno-histo-chemistry ATRX</t>
-  </si>
-  <si>
-    <t>Serum phosphate (mg/dl)</t>
-  </si>
-  <si>
-    <t>Transplant Year</t>
-  </si>
-  <si>
-    <t>Histopathology Percentage of small cell component (%)</t>
-  </si>
-  <si>
-    <t>Analgesia</t>
-  </si>
-  <si>
-    <t>SGPT (U/L)</t>
-  </si>
-  <si>
-    <t>Immuno-histo-chemistry Ki-67</t>
-  </si>
-  <si>
-    <t>Cranial nerve involvement</t>
-  </si>
-  <si>
-    <t>OI (400-500 mmHg)</t>
-  </si>
-  <si>
-    <t>Urinary sodium, mEq/L</t>
-  </si>
-  <si>
-    <t>Improvement/deterioration after surgery</t>
-  </si>
-  <si>
-    <t>Propofol, mg kg–1 hr–1</t>
-  </si>
-  <si>
-    <t>Vasopressors</t>
-  </si>
-  <si>
-    <t>DAT Saline Control</t>
-  </si>
-  <si>
-    <t>Symptoms attributable to PRES</t>
-  </si>
-  <si>
-    <t>Treatment for SAH</t>
-  </si>
-  <si>
-    <t>Department at time of diagnosis of arterial thromboembolism</t>
-  </si>
-  <si>
-    <t>Suspicious clinical features</t>
+    <t>Nutrition support</t>
+  </si>
+  <si>
+    <t>Serum Na (136–145 mmol/l)</t>
   </si>
   <si>
     <t>Intervals (ms)</t>
   </si>
   <si>
-    <t>IL-10 (&lt;2.00 pg/mL)</t>
-  </si>
-  <si>
-    <t>Time from HCT to COVID-19 symptoms</t>
-  </si>
-  <si>
     <t>Anti-thrombin (IU/dL)</t>
   </si>
   <si>
-    <t>Antiarrhythmics</t>
-  </si>
-  <si>
-    <t>Thrombosis clinic after how many days after discharge (days)</t>
-  </si>
-  <si>
-    <t>HIV serology</t>
-  </si>
-  <si>
-    <t>NLR</t>
-  </si>
-  <si>
-    <t>Glucocorticoids</t>
-  </si>
-  <si>
-    <t>Since hospital admission</t>
-  </si>
-  <si>
-    <t>High-density lipoprotein (HDL) (&gt;1 mmol/L)</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>MGCS at discharge</t>
-  </si>
-  <si>
-    <t>Clinical probability of VTE according to Wells' criteria</t>
-  </si>
-  <si>
-    <t>Possible mechanism of neuronal injury</t>
-  </si>
-  <si>
-    <t>Anaemia (Hb &lt;8 g/dl)</t>
-  </si>
-  <si>
-    <t>Stem cell Transplant type</t>
-  </si>
-  <si>
-    <t>Schizocytes search</t>
-  </si>
-  <si>
-    <t>Rhythms developed</t>
-  </si>
-  <si>
-    <t>Vessel imaging</t>
-  </si>
-  <si>
-    <t>Location of clot</t>
-  </si>
-  <si>
-    <t>Vasopression/inotropy during admission</t>
-  </si>
-  <si>
-    <t>Complement C4 (g/L)</t>
-  </si>
-  <si>
-    <t>ProphylacticAnticoagulation</t>
-  </si>
-  <si>
-    <t>Viral load CT value (upE gene)</t>
-  </si>
-  <si>
-    <t>% Lysis 30 min (&lt;7.5%)</t>
-  </si>
-  <si>
-    <t>N terminal probrain natriuretic peptide (ng/L)</t>
-  </si>
-  <si>
-    <t>MGCS at admission</t>
-  </si>
-  <si>
-    <t>PR (ms)</t>
-  </si>
-  <si>
-    <t>Total leucocyte count (x103/μL)</t>
-  </si>
-  <si>
-    <t>Type and duration of symptoms</t>
-  </si>
-  <si>
-    <t>Peripheral blood smear</t>
-  </si>
-  <si>
-    <t>Prophylactic antimicrobials</t>
-  </si>
-  <si>
-    <t>SARS-CoV-2 PCR (date &amp;CTV)</t>
-  </si>
-  <si>
-    <t>Immuno-histo-chemistry Cytokeratin, TTF1 CD45, CD3, CD20, Neurofilament protein and Neu N</t>
-  </si>
-  <si>
-    <t>Virus culture</t>
-  </si>
-  <si>
-    <t>Modified TOAST</t>
-  </si>
-  <si>
-    <t>Time from illness onset to first hospital admission (days)</t>
-  </si>
-  <si>
-    <t>C4 (mg/dL)</t>
-  </si>
-  <si>
-    <t>Kidney pathology</t>
-  </si>
-  <si>
-    <t>Historical HR (b.p.m.)</t>
-  </si>
-  <si>
-    <t>GA at fetal death, weeks</t>
-  </si>
-  <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>ASAT (IU/L)</t>
-  </si>
-  <si>
-    <t>IV sedation prior to isoflurane, mean ± sd</t>
-  </si>
-  <si>
-    <t>Infection-related biomarkers</t>
-  </si>
-  <si>
-    <t>Time from initial COVID-19 diagnosis</t>
-  </si>
-  <si>
-    <t>Vitamin B12</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Antioxidant therapy</t>
-  </si>
-  <si>
-    <t>Na, 134-144 mmol/L</t>
-  </si>
-  <si>
-    <t>Duration of volatile sedation, hr</t>
-  </si>
-  <si>
-    <t>Days from onset to using corticosteroid, days</t>
-  </si>
-  <si>
-    <t>RV</t>
-  </si>
-  <si>
-    <t>New Antibodies in Serum</t>
-  </si>
-  <si>
-    <t>Globulin (g/L, 20~35)</t>
-  </si>
-  <si>
-    <t>Ammonia concentration</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Pneumonic infiltration compatible with COVID (%)</t>
-  </si>
-  <si>
-    <t>ARDS</t>
-  </si>
-  <si>
-    <t>CCP units transfused</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> убрать</t>
-  </si>
-  <si>
-    <t>APACHE IV score</t>
-  </si>
-  <si>
-    <t>Induction treatment</t>
-  </si>
-  <si>
-    <t>ASO titer</t>
-  </si>
-  <si>
-    <t>Acute on chronic liver failure</t>
-  </si>
-  <si>
-    <t>Follow up after hydroxychloroquine and heparin</t>
-  </si>
-  <si>
-    <t>Urinary protein, mg/dL</t>
-  </si>
-  <si>
-    <t>Pro-b-type natriuretic peptide (pg/mL)</t>
-  </si>
-  <si>
-    <t>Brain(online supplementary figures S1 and S2)</t>
-  </si>
-  <si>
-    <t>Total iron-binding capacity</t>
-  </si>
-  <si>
-    <t>Ionized calcium, mEq/L</t>
-  </si>
-  <si>
-    <t>2nd day after treatment</t>
-  </si>
-  <si>
-    <t>Blood biochemistry</t>
-  </si>
-  <si>
-    <t>EEG findings</t>
-  </si>
-  <si>
-    <t>Alpha-fetoprotein</t>
-  </si>
-  <si>
-    <t>Basic disease</t>
-  </si>
-  <si>
-    <t>TNF-α (pg/ml, &lt; 8.1)</t>
-  </si>
-  <si>
-    <t>K+ (normal 3.5–5.1 mmol/L)</t>
-  </si>
-  <si>
-    <t>Serum magnesium (mg/dl)</t>
-  </si>
-  <si>
-    <t>Hydrocephalus</t>
-  </si>
-  <si>
-    <t>Acute kidney injury</t>
-  </si>
-  <si>
-    <t>Total protein/albumin, 6.1-8.1/ 3.4-4.7 g/dL</t>
-  </si>
-  <si>
-    <t>Days from COVID-19 symptom onset to ICU admission</t>
-  </si>
-  <si>
-    <t>Hospital day of CCP</t>
-  </si>
-  <si>
-    <t>Bilateral or Unilateral Pneumothorax</t>
-  </si>
-  <si>
-    <t>CRRT</t>
-  </si>
-  <si>
-    <t>Serum Na (136–145 mmol/l)</t>
-  </si>
-  <si>
-    <t>DAT Anti-IgG</t>
-  </si>
-  <si>
-    <t>AAV treatment</t>
-  </si>
-  <si>
-    <t>Days of immune booster use</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 IgG (Abbot)</t>
-  </si>
-  <si>
-    <t>Haemorrhagic transformation</t>
-  </si>
-  <si>
-    <t>Skin pathology</t>
-  </si>
-  <si>
-    <t>Hct % Female: 36–44.5Male: 41.5–50.4</t>
-  </si>
-  <si>
-    <t>Modified Rankine Score at time of writing (0–6)</t>
-  </si>
-  <si>
-    <t>Days on intubation during the event</t>
-  </si>
-  <si>
-    <t>Signs and symptoms of pulmonary embolism</t>
-  </si>
-  <si>
-    <t>Blood routine</t>
-  </si>
-  <si>
-    <t>Stroke symptom and signs</t>
-  </si>
-  <si>
-    <t>Day of second episode</t>
-  </si>
-  <si>
-    <t>Period from initial symptoms to diagnosis of pneumonia (days)</t>
-  </si>
-  <si>
-    <t>SGOT(AST) IU/L Female up to 31Male: &lt; 40</t>
-  </si>
-  <si>
-    <t>DIC-score (ISTH)</t>
-  </si>
-  <si>
-    <t>Days ill before hospitalisation</t>
-  </si>
-  <si>
-    <t>Hospitalization after SARS-CoV-2 diagnosis (days)</t>
-  </si>
-  <si>
-    <t>Immuno-histo-chemistry IDH1R132H mutation</t>
-  </si>
-  <si>
-    <t>Recovery CK and other inflammatory markers prior to discharge</t>
-  </si>
-  <si>
-    <t>Hospital day conduction disease developed</t>
-  </si>
-  <si>
-    <t>Max amplitude (52-57 mm)</t>
-  </si>
-  <si>
-    <t>Size of PTX</t>
-  </si>
-  <si>
-    <t>Acute treatment of stroke</t>
-  </si>
-  <si>
-    <t>Respiratory support</t>
-  </si>
-  <si>
-    <t>Bacterial pneumonia</t>
-  </si>
-  <si>
-    <t>Positive serology</t>
-  </si>
-  <si>
-    <t>NT-pro-B-type natriuretic peptide (NT-pro-BNP) (pg/mL)</t>
-  </si>
-  <si>
-    <t>Ceftriaxone dependent RBC antibody</t>
-  </si>
-  <si>
-    <t>Use of corticosteroid</t>
-  </si>
-  <si>
-    <t>Onset of PRES from hospitalization</t>
-  </si>
-  <si>
-    <t>Type of VTE</t>
-  </si>
-  <si>
-    <t>Hydroxychloroquine dependent RBC antibody</t>
-  </si>
-  <si>
-    <t>Digital subtraction angiography (DSA)</t>
-  </si>
-  <si>
-    <t>Negative by PERC Criteria</t>
-  </si>
-  <si>
-    <t>Days to readmission</t>
-  </si>
-  <si>
-    <t>4th day after treatment</t>
-  </si>
-  <si>
-    <t>Pressors</t>
-  </si>
-  <si>
-    <t>Blood sodium (mmol/l)</t>
-  </si>
-  <si>
-    <t>Total cholesterol (&lt;5.2 mmol/L)</t>
-  </si>
-  <si>
-    <t>Anti-PF4 antibody search</t>
-  </si>
-  <si>
-    <t>Fisher grade for SAH</t>
-  </si>
-  <si>
-    <t>Nutrition support</t>
-  </si>
-  <si>
-    <t>Dexmedetomidine, µg kg–1 hr–1</t>
-  </si>
-  <si>
-    <t>After termination of isoflurane (data after termination of isoflurane were collected in the first 30 min after the change of volatile to IV sedation)</t>
-  </si>
-  <si>
-    <t>COVID-19 PCR follow up</t>
-  </si>
-  <si>
-    <t>Reticulocyte percent</t>
-  </si>
-  <si>
-    <t>Sufentanil, µg kg–1 hr–1, mean ± sd</t>
-  </si>
-  <si>
-    <t>Urinary dipstick</t>
-  </si>
-  <si>
-    <t>Poor appetite</t>
-  </si>
-  <si>
-    <t>Convalescent plasma therapy</t>
-  </si>
-  <si>
-    <t>Antibiotics used before onset of neurological symptoms</t>
-  </si>
-  <si>
-    <t>Bloating</t>
-  </si>
-  <si>
-    <t>Protein immunoelectrophoresis</t>
-  </si>
-  <si>
-    <t>Ascites</t>
-  </si>
-  <si>
-    <t>EBV PCR</t>
-  </si>
-  <si>
-    <t>Drinking history</t>
-  </si>
-  <si>
-    <t>Peak value for CK and other inflammatory markers</t>
-  </si>
-  <si>
-    <t>MAP (mmHg), mean (range)</t>
-  </si>
-  <si>
-    <t>History of MG (y)</t>
-  </si>
-  <si>
-    <t>Transthoracic Echocardiogram</t>
-  </si>
-  <si>
-    <t>Nadir HR (b.p.m.)</t>
-  </si>
-  <si>
-    <t>QT-prolonging drugs</t>
-  </si>
-  <si>
-    <t>Histological type</t>
-  </si>
-  <si>
-    <t>Melaena</t>
-  </si>
-  <si>
-    <t>SF ratio</t>
-  </si>
-  <si>
-    <t>Computed tomography with IV contrast</t>
-  </si>
-  <si>
-    <t>Lymphopenia (&lt;0.4 × 109/l)</t>
-  </si>
-  <si>
-    <t>Time between symptom onset and ICH identification (days)</t>
-  </si>
-  <si>
-    <t>Readmission imaging</t>
-  </si>
-  <si>
-    <t>NP swabs after 18F FDG PET/CT</t>
-  </si>
-  <si>
-    <t>Other vascular imaging</t>
-  </si>
-  <si>
-    <t>Large vessel occlusion</t>
-  </si>
-  <si>
-    <t>B lymphocyte immunophenotyping</t>
-  </si>
-  <si>
-    <t>MGFA classification at discharge</t>
-  </si>
-  <si>
-    <t>Fungal pneumonia</t>
-  </si>
-  <si>
-    <t>Red blood cell distribution width</t>
-  </si>
-  <si>
-    <t>Placental and fetal histopathology</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>VDRL</t>
-  </si>
-  <si>
-    <t>ST/T-wave changes</t>
-  </si>
-  <si>
-    <t>SGPT(ALT) IU/L Female: &lt; 31Male: &lt; 45</t>
-  </si>
-  <si>
-    <t>AMI indexes</t>
-  </si>
-  <si>
-    <t>DAT Polyspecific</t>
-  </si>
-  <si>
-    <t>Dark urine</t>
-  </si>
-  <si>
-    <t>Immunoregulator</t>
-  </si>
-  <si>
-    <t>Pleural effusion</t>
-  </si>
-  <si>
-    <t>Nasopharyngeal swab</t>
-  </si>
-  <si>
-    <t>Pertinent neurological findings</t>
-  </si>
-  <si>
-    <t>No Toxic Granules Seen</t>
-  </si>
-  <si>
-    <t>Chest drain duration (days)</t>
-  </si>
-  <si>
-    <t>Antiplatelet/anticoagulant</t>
-  </si>
-  <si>
-    <t>Anion Gap (mmol/L)</t>
-  </si>
-  <si>
-    <t>Duration of immobilization (days)</t>
-  </si>
-  <si>
-    <t>Histopathology MVP</t>
-  </si>
-  <si>
-    <t>ECMO</t>
-  </si>
-  <si>
-    <t>Type of CHD</t>
-  </si>
-  <si>
-    <t>Time to onset, days</t>
-  </si>
-  <si>
-    <t>Anti-glycoprotein IIb/IIIa antibody search</t>
-  </si>
-  <si>
-    <t>Immuno-histo-chemistry p53 mutation</t>
-  </si>
-  <si>
-    <t>pTNM</t>
-  </si>
-  <si>
-    <t>Chronic MG treatment</t>
-  </si>
-  <si>
-    <t>Thoracic imaging</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
